--- a/Scores.xlsx
+++ b/Scores.xlsx
@@ -903,7 +903,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,31 +957,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
